--- a/Midibrunch.xlsx
+++ b/Midibrunch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="83">
   <si>
     <t>Assembly List</t>
   </si>
@@ -68,9 +68,21 @@
     <t>D6</t>
   </si>
   <si>
+    <t>make bridge</t>
+  </si>
+  <si>
+    <t>or replace with zero Ω</t>
+  </si>
+  <si>
     <t>D7</t>
   </si>
   <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>do not place</t>
+  </si>
+  <si>
     <t>D8</t>
   </si>
   <si>
@@ -137,109 +149,112 @@
     <t>OK1</t>
   </si>
   <si>
+    <t>OPTO_DARL_6N137</t>
+  </si>
+  <si>
+    <t>package 8-smd or DIL; part # 6N137 *connect pins 7 and 8!</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>Generic molex header - 4 pins</t>
+  </si>
+  <si>
+    <t>package THT; hole size 1.5mm,0.508mm; row single; form molex; pins 4; pin spacing 0.156in (3.96mm)</t>
+  </si>
+  <si>
+    <t>package THT; hole size 1.0mm,0.508mm; row single; form molex; pins 4; pin spacing 0.1in (2.54mm)</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>220 Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±1%; resistance 220Ω</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>390 Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±1%; resistance 470Ω</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>1k Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±1%; resistance 1kΩ</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>3k Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±1%; resistance 3kΩ</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>4.7k Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±1%; resistance 4.7kΩ</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>10k Ω Resistor</t>
+  </si>
+  <si>
+    <t>package 0603 [SMD]; tolerance ±5%; resistance 10kΩ</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Arduino Nano (Rev3.0)</t>
+  </si>
+  <si>
+    <t>type Arduino Nano (3.0); part # ATMEGA328P</t>
+  </si>
+  <si>
+    <t>Shopping List</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>OPTO_DARL_6N138S</t>
   </si>
   <si>
     <t>package 8-smd; part # 6N138</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>Generic molex header - 4 pins</t>
-  </si>
-  <si>
-    <t>package THT; hole size 1.5mm,0.508mm; row single; form molex; pins 4; pin spacing 0.156in (3.96mm)</t>
-  </si>
-  <si>
-    <t>package THT; hole size 1.0mm,0.508mm; row single; form molex; pins 4; pin spacing 0.1in (2.54mm)</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>220 Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±1%; resistance 220Ω</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>390 Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±1%; resistance 470Ω</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>1k Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±1%; resistance 1kΩ</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>3k Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±1%; resistance 3kΩ</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>4.7k Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±1%; resistance 4.7kΩ</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>10k Ω Resistor</t>
-  </si>
-  <si>
-    <t>package 0603 [SMD]; tolerance ±5%; resistance 10kΩ</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
     <t>package 0603 [SMD]; tolerance ±1%; resistance 10kΩ</t>
   </si>
   <si>
-    <t>USB</t>
-  </si>
-  <si>
-    <t>Arduino Nano (Rev3.0)</t>
-  </si>
-  <si>
-    <t>type Arduino Nano (3.0); part # ATMEGA328P</t>
-  </si>
-  <si>
-    <t>Shopping List</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>OPTO_DARL_6N137</t>
+    <t>package Melf DO-213 AA [SMD]; type Rectifier 1N4148</t>
   </si>
   <si>
     <t>package 8-smd; part # 6N137</t>
@@ -252,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -280,18 +295,50 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -300,21 +347,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,289 +681,289 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -949,7 +1002,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
@@ -963,10 +1016,10 @@
         <v>1.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -974,10 +1027,10 @@
         <v>1.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -985,10 +1038,10 @@
         <v>1.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -996,10 +1049,10 @@
         <v>1.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
@@ -1007,10 +1060,10 @@
         <v>4.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
@@ -1018,10 +1071,10 @@
         <v>1.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -1029,10 +1082,10 @@
         <v>1.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -1040,10 +1093,10 @@
         <v>1.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49">
@@ -1051,10 +1104,10 @@
         <v>1.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -1062,10 +1115,10 @@
         <v>1.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1073,10 +1126,10 @@
         <v>1.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1084,10 +1137,10 @@
         <v>3.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
@@ -1095,10 +1148,10 @@
         <v>1.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
@@ -1106,10 +1159,10 @@
         <v>1.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55">
@@ -1117,10 +1170,10 @@
         <v>1.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -1128,10 +1181,10 @@
         <v>1.0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1160,13 +1213,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1233,253 +1286,253 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1532,10 +1585,10 @@
         <v>1.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1543,10 +1596,10 @@
         <v>1.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -1554,10 +1607,10 @@
         <v>1.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -1565,10 +1618,10 @@
         <v>1.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -1576,10 +1629,10 @@
         <v>4.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -1587,10 +1640,10 @@
         <v>1.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -1598,10 +1651,10 @@
         <v>1.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -1609,10 +1662,10 @@
         <v>1.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -1620,10 +1673,10 @@
         <v>1.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1631,10 +1684,10 @@
         <v>1.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47">
@@ -1642,10 +1695,10 @@
         <v>1.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -1653,10 +1706,10 @@
         <v>3.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
@@ -1664,10 +1717,10 @@
         <v>1.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -1675,10 +1728,10 @@
         <v>1.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -1686,10 +1739,10 @@
         <v>1.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -1697,10 +1750,10 @@
         <v>1.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
